--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7397699983515</v>
+        <v>15.06448166666667</v>
       </c>
       <c r="H2">
-        <v>14.7397699983515</v>
+        <v>45.193445</v>
       </c>
       <c r="I2">
-        <v>0.2377263441741685</v>
+        <v>0.2352496185839757</v>
       </c>
       <c r="J2">
-        <v>0.2377263441741685</v>
+        <v>0.2352496185839758</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18600840232179</v>
+        <v>1.221475333333333</v>
       </c>
       <c r="N2">
-        <v>1.18600840232179</v>
+        <v>3.664426</v>
       </c>
       <c r="O2">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="P2">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="Q2">
-        <v>17.48149106633551</v>
+        <v>18.40089276528555</v>
       </c>
       <c r="R2">
-        <v>17.48149106633551</v>
+        <v>165.60803488757</v>
       </c>
       <c r="S2">
-        <v>0.04012472273544426</v>
+        <v>0.03903735382829537</v>
       </c>
       <c r="T2">
-        <v>0.04012472273544426</v>
+        <v>0.03903735382829538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7397699983515</v>
+        <v>15.06448166666667</v>
       </c>
       <c r="H3">
-        <v>14.7397699983515</v>
+        <v>45.193445</v>
       </c>
       <c r="I3">
-        <v>0.2377263441741685</v>
+        <v>0.2352496185839757</v>
       </c>
       <c r="J3">
-        <v>0.2377263441741685</v>
+        <v>0.2352496185839758</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.44619306940182</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N3">
-        <v>4.44619306940182</v>
+        <v>13.373613</v>
       </c>
       <c r="O3">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500271</v>
       </c>
       <c r="P3">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500272</v>
       </c>
       <c r="Q3">
-        <v>65.53586321124732</v>
+        <v>67.15551595186501</v>
       </c>
       <c r="R3">
-        <v>65.53586321124732</v>
+        <v>604.399643566785</v>
       </c>
       <c r="S3">
-        <v>0.1504224285331812</v>
+        <v>0.1424699155184716</v>
       </c>
       <c r="T3">
-        <v>0.1504224285331812</v>
+        <v>0.1424699155184716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7397699983515</v>
+        <v>15.06448166666667</v>
       </c>
       <c r="H4">
-        <v>14.7397699983515</v>
+        <v>45.193445</v>
       </c>
       <c r="I4">
-        <v>0.2377263441741685</v>
+        <v>0.2352496185839757</v>
       </c>
       <c r="J4">
-        <v>0.2377263441741685</v>
+        <v>0.2352496185839758</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.3945247564616</v>
+        <v>1.681593333333333</v>
       </c>
       <c r="N4">
-        <v>1.3945247564616</v>
+        <v>5.04478</v>
       </c>
       <c r="O4">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="P4">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="Q4">
-        <v>20.55497416725112</v>
+        <v>25.33233194078889</v>
       </c>
       <c r="R4">
-        <v>20.55497416725112</v>
+        <v>227.9909874671</v>
       </c>
       <c r="S4">
-        <v>0.04717919290554303</v>
+        <v>0.05374234923720875</v>
       </c>
       <c r="T4">
-        <v>0.04717919290554303</v>
+        <v>0.05374234923720877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3255845384794</v>
+        <v>12.39986466666667</v>
       </c>
       <c r="H5">
-        <v>12.3255845384794</v>
+        <v>37.199594</v>
       </c>
       <c r="I5">
-        <v>0.1987898150697106</v>
+        <v>0.1936384867313999</v>
       </c>
       <c r="J5">
-        <v>0.1987898150697106</v>
+        <v>0.1936384867313999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.18600840232179</v>
+        <v>1.221475333333333</v>
       </c>
       <c r="N5">
-        <v>1.18600840232179</v>
+        <v>3.664426</v>
       </c>
       <c r="O5">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="P5">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="Q5">
-        <v>14.61824682616411</v>
+        <v>15.14612882700489</v>
       </c>
       <c r="R5">
-        <v>14.61824682616411</v>
+        <v>136.315159443044</v>
       </c>
       <c r="S5">
-        <v>0.03355280728356524</v>
+        <v>0.03213239692718565</v>
       </c>
       <c r="T5">
-        <v>0.03355280728356524</v>
+        <v>0.03213239692718566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3255845384794</v>
+        <v>12.39986466666667</v>
       </c>
       <c r="H6">
-        <v>12.3255845384794</v>
+        <v>37.199594</v>
       </c>
       <c r="I6">
-        <v>0.1987898150697106</v>
+        <v>0.1936384867313999</v>
       </c>
       <c r="J6">
-        <v>0.1987898150697106</v>
+        <v>0.1936384867313999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.44619306940182</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N6">
-        <v>4.44619306940182</v>
+        <v>13.373613</v>
       </c>
       <c r="O6">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500271</v>
       </c>
       <c r="P6">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500272</v>
       </c>
       <c r="Q6">
-        <v>54.80192855131335</v>
+        <v>55.27699710145801</v>
       </c>
       <c r="R6">
-        <v>54.80192855131335</v>
+        <v>497.4929739131221</v>
       </c>
       <c r="S6">
-        <v>0.1257851621549358</v>
+        <v>0.1172697282648278</v>
       </c>
       <c r="T6">
-        <v>0.1257851621549358</v>
+        <v>0.1172697282648279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3255845384794</v>
+        <v>12.39986466666667</v>
       </c>
       <c r="H7">
-        <v>12.3255845384794</v>
+        <v>37.199594</v>
       </c>
       <c r="I7">
-        <v>0.1987898150697106</v>
+        <v>0.1936384867313999</v>
       </c>
       <c r="J7">
-        <v>0.1987898150697106</v>
+        <v>0.1936384867313999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.3945247564616</v>
+        <v>1.681593333333333</v>
       </c>
       <c r="N7">
-        <v>1.3945247564616</v>
+        <v>5.04478</v>
       </c>
       <c r="O7">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="P7">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="Q7">
-        <v>17.18833277676985</v>
+        <v>20.85152975770222</v>
       </c>
       <c r="R7">
-        <v>17.18833277676985</v>
+        <v>187.66376781932</v>
       </c>
       <c r="S7">
-        <v>0.03945184563120962</v>
+        <v>0.04423636153938641</v>
       </c>
       <c r="T7">
-        <v>0.03945184563120962</v>
+        <v>0.04423636153938643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.0325814118728</v>
+        <v>13.26302666666667</v>
       </c>
       <c r="H8">
-        <v>13.0325814118728</v>
+        <v>39.78908</v>
       </c>
       <c r="I8">
-        <v>0.2101924205427389</v>
+        <v>0.2071177776734501</v>
       </c>
       <c r="J8">
-        <v>0.2101924205427389</v>
+        <v>0.2071177776734502</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.18600840232179</v>
+        <v>1.221475333333333</v>
       </c>
       <c r="N8">
-        <v>1.18600840232179</v>
+        <v>3.664426</v>
       </c>
       <c r="O8">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="P8">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="Q8">
-        <v>15.45675105842392</v>
+        <v>16.20045991867556</v>
       </c>
       <c r="R8">
-        <v>15.45675105842392</v>
+        <v>145.80413926808</v>
       </c>
       <c r="S8">
-        <v>0.03547739996872307</v>
+        <v>0.03436915230654249</v>
       </c>
       <c r="T8">
-        <v>0.03547739996872307</v>
+        <v>0.03436915230654249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.0325814118728</v>
+        <v>13.26302666666667</v>
       </c>
       <c r="H9">
-        <v>13.0325814118728</v>
+        <v>39.78908</v>
       </c>
       <c r="I9">
-        <v>0.2101924205427389</v>
+        <v>0.2071177776734501</v>
       </c>
       <c r="J9">
-        <v>0.2101924205427389</v>
+        <v>0.2071177776734502</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.44619306940182</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N9">
-        <v>4.44619306940182</v>
+        <v>13.373613</v>
       </c>
       <c r="O9">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500271</v>
       </c>
       <c r="P9">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500272</v>
       </c>
       <c r="Q9">
-        <v>57.94537314988383</v>
+        <v>59.12486194956001</v>
       </c>
       <c r="R9">
-        <v>57.94537314988383</v>
+        <v>532.1237575460401</v>
       </c>
       <c r="S9">
-        <v>0.1330002127746602</v>
+        <v>0.1254329442280337</v>
       </c>
       <c r="T9">
-        <v>0.1330002127746602</v>
+        <v>0.1254329442280337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.0325814118728</v>
+        <v>13.26302666666667</v>
       </c>
       <c r="H10">
-        <v>13.0325814118728</v>
+        <v>39.78908</v>
       </c>
       <c r="I10">
-        <v>0.2101924205427389</v>
+        <v>0.2071177776734501</v>
       </c>
       <c r="J10">
-        <v>0.2101924205427389</v>
+        <v>0.2071177776734502</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3945247564616</v>
+        <v>1.681593333333333</v>
       </c>
       <c r="N10">
-        <v>1.3945247564616</v>
+        <v>5.04478</v>
       </c>
       <c r="O10">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="P10">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="Q10">
-        <v>18.17425741945789</v>
+        <v>22.30301722248889</v>
       </c>
       <c r="R10">
-        <v>18.17425741945789</v>
+        <v>200.7271550024</v>
       </c>
       <c r="S10">
-        <v>0.04171480779935562</v>
+        <v>0.04731568113887397</v>
       </c>
       <c r="T10">
-        <v>0.04171480779935562</v>
+        <v>0.04731568113887398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.336360855215</v>
+        <v>18.347281</v>
       </c>
       <c r="H11">
-        <v>17.336360855215</v>
+        <v>55.041843</v>
       </c>
       <c r="I11">
-        <v>0.2796047487752761</v>
+        <v>0.2865143954374152</v>
       </c>
       <c r="J11">
-        <v>0.2796047487752761</v>
+        <v>0.2865143954374152</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.18600840232179</v>
+        <v>1.221475333333333</v>
       </c>
       <c r="N11">
-        <v>1.18600840232179</v>
+        <v>3.664426</v>
       </c>
       <c r="O11">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="P11">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="Q11">
-        <v>20.56106963996756</v>
+        <v>22.41075117523533</v>
       </c>
       <c r="R11">
-        <v>20.56106963996756</v>
+        <v>201.696760577118</v>
       </c>
       <c r="S11">
-        <v>0.04719318365448776</v>
+        <v>0.04754423789893607</v>
       </c>
       <c r="T11">
-        <v>0.04719318365448776</v>
+        <v>0.04754423789893608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.336360855215</v>
+        <v>18.347281</v>
       </c>
       <c r="H12">
-        <v>17.336360855215</v>
+        <v>55.041843</v>
       </c>
       <c r="I12">
-        <v>0.2796047487752761</v>
+        <v>0.2865143954374152</v>
       </c>
       <c r="J12">
-        <v>0.2796047487752761</v>
+        <v>0.2865143954374152</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.44619306940182</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N12">
-        <v>4.44619306940182</v>
+        <v>13.373613</v>
       </c>
       <c r="O12">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500271</v>
       </c>
       <c r="P12">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500272</v>
       </c>
       <c r="Q12">
-        <v>77.08080748310594</v>
+        <v>81.78981189875101</v>
       </c>
       <c r="R12">
-        <v>77.08080748310594</v>
+        <v>736.1083070887591</v>
       </c>
       <c r="S12">
-        <v>0.1769211800496665</v>
+        <v>0.173516462889496</v>
       </c>
       <c r="T12">
-        <v>0.1769211800496665</v>
+        <v>0.173516462889496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.336360855215</v>
+        <v>18.347281</v>
       </c>
       <c r="H13">
-        <v>17.336360855215</v>
+        <v>55.041843</v>
       </c>
       <c r="I13">
-        <v>0.2796047487752761</v>
+        <v>0.2865143954374152</v>
       </c>
       <c r="J13">
-        <v>0.2796047487752761</v>
+        <v>0.2865143954374152</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.3945247564616</v>
+        <v>1.681593333333333</v>
       </c>
       <c r="N13">
-        <v>1.3945247564616</v>
+        <v>5.04478</v>
       </c>
       <c r="O13">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="P13">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="Q13">
-        <v>24.17598439954911</v>
+        <v>30.85266541439334</v>
       </c>
       <c r="R13">
-        <v>24.17598439954911</v>
+        <v>277.67398872954</v>
       </c>
       <c r="S13">
-        <v>0.05549038507112182</v>
+        <v>0.06545369464898314</v>
       </c>
       <c r="T13">
-        <v>0.05549038507112182</v>
+        <v>0.06545369464898317</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.56880196729916</v>
+        <v>4.961503666666666</v>
       </c>
       <c r="H14">
-        <v>4.56880196729916</v>
+        <v>14.884511</v>
       </c>
       <c r="I14">
-        <v>0.07368667143810594</v>
+        <v>0.077479721573759</v>
       </c>
       <c r="J14">
-        <v>0.07368667143810594</v>
+        <v>0.07747972157375901</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.18600840232179</v>
+        <v>1.221475333333333</v>
       </c>
       <c r="N14">
-        <v>1.18600840232179</v>
+        <v>3.664426</v>
       </c>
       <c r="O14">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="P14">
-        <v>0.1687853438155225</v>
+        <v>0.1659401365378216</v>
       </c>
       <c r="Q14">
-        <v>5.418637521761129</v>
+        <v>6.060354345076222</v>
       </c>
       <c r="R14">
-        <v>5.418637521761129</v>
+        <v>54.543189105686</v>
       </c>
       <c r="S14">
-        <v>0.01243723017330215</v>
+        <v>0.01285699557686197</v>
       </c>
       <c r="T14">
-        <v>0.01243723017330215</v>
+        <v>0.01285699557686197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.56880196729916</v>
+        <v>4.961503666666666</v>
       </c>
       <c r="H15">
-        <v>4.56880196729916</v>
+        <v>14.884511</v>
       </c>
       <c r="I15">
-        <v>0.07368667143810594</v>
+        <v>0.077479721573759</v>
       </c>
       <c r="J15">
-        <v>0.07368667143810594</v>
+        <v>0.07747972157375901</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.44619306940182</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N15">
-        <v>4.44619306940182</v>
+        <v>13.373613</v>
       </c>
       <c r="O15">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500271</v>
       </c>
       <c r="P15">
-        <v>0.6327545609458214</v>
+        <v>0.6056116748500272</v>
       </c>
       <c r="Q15">
-        <v>20.31377564247493</v>
+        <v>22.117743312027</v>
       </c>
       <c r="R15">
-        <v>20.31377564247493</v>
+        <v>199.059689808243</v>
       </c>
       <c r="S15">
-        <v>0.04662557743337772</v>
+        <v>0.04692262394919797</v>
       </c>
       <c r="T15">
-        <v>0.04662557743337772</v>
+        <v>0.04692262394919798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.56880196729916</v>
+        <v>4.961503666666666</v>
       </c>
       <c r="H16">
-        <v>4.56880196729916</v>
+        <v>14.884511</v>
       </c>
       <c r="I16">
-        <v>0.07368667143810594</v>
+        <v>0.077479721573759</v>
       </c>
       <c r="J16">
-        <v>0.07368667143810594</v>
+        <v>0.07747972157375901</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3945247564616</v>
+        <v>1.681593333333333</v>
       </c>
       <c r="N16">
-        <v>1.3945247564616</v>
+        <v>5.04478</v>
       </c>
       <c r="O16">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="P16">
-        <v>0.1984600952386562</v>
+        <v>0.2284481886121514</v>
       </c>
       <c r="Q16">
-        <v>6.37130745076914</v>
+        <v>8.343231489175556</v>
       </c>
       <c r="R16">
-        <v>6.37130745076914</v>
+        <v>75.08908340258</v>
       </c>
       <c r="S16">
-        <v>0.01462386383142607</v>
+        <v>0.01770010204769907</v>
       </c>
       <c r="T16">
-        <v>0.01462386383142607</v>
+        <v>0.01770010204769907</v>
       </c>
     </row>
   </sheetData>
